--- a/app/src/main/assets/config/cursos_distancia.xlsx
+++ b/app/src/main/assets/config/cursos_distancia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoteD\Downloads\OneDrive_1_23-11-2022\01_Autocuidado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoteD\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E3D57C8-C51E-4902-AA45-3D86DEBCA033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2686932F-FC54-4568-9229-11448E0086DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Tipo de objeto</t>
   </si>
@@ -60,35 +60,20 @@
     <t>contenido</t>
   </si>
   <si>
-    <t>mini_AUTO.png</t>
-  </si>
-  <si>
-    <t>Autocuidado</t>
-  </si>
-  <si>
-    <t>Técnicas de Autocuidado y Vida Saludable en el Contexto Laboral</t>
-  </si>
-  <si>
-    <t>Aplicación de herramientas para la prevención del Estrés Laboral</t>
-  </si>
-  <si>
-    <t>Técnicas de Gestión del Autocuidado en situaciones de crisis</t>
-  </si>
-  <si>
-    <t>DL_AEC_01</t>
-  </si>
-  <si>
-    <t>DL_AEC_02</t>
-  </si>
-  <si>
-    <t>DL_AUTO</t>
+    <t>DL_LL_LECC</t>
+  </si>
+  <si>
+    <t>Deberes y Derechos Laborales en las Organizaciones</t>
+  </si>
+  <si>
+    <t>mini_LL.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -118,12 +103,6 @@
       <color rgb="FF000000"/>
       <name val="Source Code Pro"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Source Code Pro"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -151,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -161,7 +140,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,7 +481,7 @@
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:O6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,7 +530,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>12</v>
@@ -581,7 +559,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>9</v>
@@ -593,63 +571,20 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1024" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1024" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
